--- a/content/Book Six 1-10.xlsx
+++ b/content/Book Six 1-10.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79308338-0163-4BEA-9A88-8328B3EA1607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56382C9-461E-4847-9849-89C8C855ECE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="739" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="739" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 6-1" sheetId="18" r:id="rId1"/>
@@ -17939,7 +17939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -17951,9 +17951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -26655,8 +26652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251:A252"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30465,7 +30462,7 @@
       <c r="C241" s="2">
         <v>6</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="D241" s="8" t="s">
         <v>2507</v>
       </c>
       <c r="E241" s="2" t="s">
@@ -30609,7 +30606,7 @@
       <c r="C250" s="2">
         <v>0</v>
       </c>
-      <c r="D250" s="10" t="s">
+      <c r="D250" s="9" t="s">
         <v>5945</v>
       </c>
     </row>
@@ -30651,8 +30648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E385"/>
   <sheetViews>
-    <sheetView topLeftCell="A370" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A384" sqref="A384:A385"/>
+    <sheetView topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36726,7 +36723,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>5958</v>
       </c>
@@ -36736,7 +36733,7 @@
       <c r="C384" s="2">
         <v>1</v>
       </c>
-      <c r="D384" s="6" t="s">
+      <c r="D384" s="5" t="s">
         <v>3317</v>
       </c>
     </row>
@@ -65250,7 +65247,7 @@
       <c r="D62" s="3" t="s">
         <v>1730</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="6" t="s">
         <v>1731</v>
       </c>
     </row>
@@ -69944,8 +69941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E497"/>
   <sheetViews>
-    <sheetView topLeftCell="A480" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A496" sqref="A496:A497"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72253,7 +72250,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>5955</v>
+        <v>5957</v>
       </c>
       <c r="B147" s="2">
         <v>21</v>
@@ -73870,7 +73867,7 @@
       <c r="D248" s="2" t="s">
         <v>5490</v>
       </c>
-      <c r="E248" s="7" t="s">
+      <c r="E248" s="6" t="s">
         <v>5491</v>
       </c>
     </row>
@@ -74122,7 +74119,7 @@
       <c r="C263" s="2">
         <v>0</v>
       </c>
-      <c r="D263" s="8" t="s">
+      <c r="D263" s="7" t="s">
         <v>5662</v>
       </c>
     </row>

--- a/content/Book Six 1-10.xlsx
+++ b/content/Book Six 1-10.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56382C9-461E-4847-9849-89C8C855ECE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF72D990-DF81-42D2-A32A-1D667D86F073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="739" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="739" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 6-1" sheetId="18" r:id="rId1"/>
@@ -26652,8 +26652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E252"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27184,7 +27184,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>5955</v>
+        <v>5957</v>
       </c>
       <c r="B34" s="2">
         <v>5</v>
@@ -69941,7 +69941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
